--- a/final_data_pipeline/output/311224longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311224longform_elec_options_nowhp.xlsx
@@ -711,7 +711,7 @@
         <v>83</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -726,10 +726,10 @@
         <v>1290639.050312052</v>
       </c>
       <c r="N2">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="O2">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="P2">
         <v>161.3298812890064</v>
@@ -764,7 +764,7 @@
         <v>83</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -779,10 +779,10 @@
         <v>1699222.622824276</v>
       </c>
       <c r="N3">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="O3">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="P3">
         <v>212.4028278530345</v>
@@ -870,7 +870,7 @@
         <v>83</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -885,10 +885,10 @@
         <v>353355.3409251557</v>
       </c>
       <c r="N5">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="O5">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="P5">
         <v>44.16941761564447</v>
@@ -976,7 +976,7 @@
         <v>83</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -991,10 +991,10 @@
         <v>981773.3387304785</v>
       </c>
       <c r="N7">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="O7">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="P7">
         <v>122.7216673413098</v>
@@ -1029,7 +1029,7 @@
         <v>83</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -1044,10 +1044,10 @@
         <v>419439.6624431778</v>
       </c>
       <c r="N8">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="O8">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="P8">
         <v>52.42995780539723</v>
@@ -1082,7 +1082,7 @@
         <v>83</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -1097,10 +1097,10 @@
         <v>1076997.406245252</v>
       </c>
       <c r="N9">
-        <v>1.741590909090909</v>
+        <v>1.803394296576035</v>
       </c>
       <c r="O9">
-        <v>1.89075</v>
+        <v>1.964819060413116</v>
       </c>
       <c r="P9">
         <v>134.6246757806565</v>
@@ -1188,7 +1188,7 @@
         <v>83</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1203,10 +1203,10 @@
         <v>445451.2421278559</v>
       </c>
       <c r="N11">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="O11">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="P11">
         <v>55.68140526598199</v>
@@ -1341,7 +1341,7 @@
         <v>83</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1356,10 +1356,10 @@
         <v>466423.2930743959</v>
       </c>
       <c r="N14">
-        <v>1.741590909090909</v>
+        <v>1.859533546038736</v>
       </c>
       <c r="O14">
-        <v>1.89075</v>
+        <v>2.032558602498382</v>
       </c>
       <c r="P14">
         <v>58.30291163429948</v>
@@ -1394,7 +1394,7 @@
         <v>83</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1409,10 +1409,10 @@
         <v>678092.7995180225</v>
       </c>
       <c r="N15">
-        <v>1.741590909090909</v>
+        <v>1.546865537736907</v>
       </c>
       <c r="O15">
-        <v>1.89075</v>
+        <v>1.660778333536659</v>
       </c>
       <c r="P15">
         <v>84.76159993975281</v>
@@ -1553,7 +1553,7 @@
         <v>83</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1568,10 +1568,10 @@
         <v>536365.7758239276</v>
       </c>
       <c r="N18">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="O18">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="P18">
         <v>67.04572197799095</v>
@@ -1606,7 +1606,7 @@
         <v>83</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -1621,10 +1621,10 @@
         <v>917813.4031196755</v>
       </c>
       <c r="N19">
-        <v>1.741590909090909</v>
+        <v>1.672603071948262</v>
       </c>
       <c r="O19">
-        <v>1.89075</v>
+        <v>1.808689105403011</v>
       </c>
       <c r="P19">
         <v>114.7266753899594</v>
@@ -1712,7 +1712,7 @@
         <v>83</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1727,10 +1727,10 @@
         <v>429860.7724820906</v>
       </c>
       <c r="N21">
-        <v>1.741590909090909</v>
+        <v>1.600162412993039</v>
       </c>
       <c r="O21">
-        <v>1.89075</v>
+        <v>1.723215189873418</v>
       </c>
       <c r="P21">
         <v>53.73259656026133</v>
@@ -1765,7 +1765,7 @@
         <v>83</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J22">
         <v>8000</v>
@@ -1780,10 +1780,10 @@
         <v>942642.7811614531</v>
       </c>
       <c r="N22">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="O22">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="P22">
         <v>117.8303476451816</v>
@@ -1818,7 +1818,7 @@
         <v>83</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1833,10 +1833,10 @@
         <v>491251.1649361285</v>
       </c>
       <c r="N23">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="O23">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="P23">
         <v>61.40639561701607</v>
@@ -1871,7 +1871,7 @@
         <v>83</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J24">
         <v>8000</v>
@@ -1886,10 +1886,10 @@
         <v>1247352.041344643</v>
       </c>
       <c r="N24">
-        <v>1.741590909090909</v>
+        <v>1.911855479578636</v>
       </c>
       <c r="O24">
-        <v>1.89075</v>
+        <v>2.09608909874769</v>
       </c>
       <c r="P24">
         <v>155.9190051680804</v>
@@ -2083,7 +2083,7 @@
         <v>83</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J28">
         <v>8000</v>
@@ -2098,10 +2098,10 @@
         <v>384834.4080788534</v>
       </c>
       <c r="N28">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="O28">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="P28">
         <v>48.10430100985668</v>
@@ -2136,7 +2136,7 @@
         <v>83</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J29">
         <v>8000</v>
@@ -2151,10 +2151,10 @@
         <v>763843.0858607751</v>
       </c>
       <c r="N29">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="O29">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="P29">
         <v>95.48038573259689</v>
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J31">
         <v>8000</v>
@@ -2289,7 +2289,7 @@
         <v>83</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2304,10 +2304,10 @@
         <v>1253385.688345612</v>
       </c>
       <c r="N32">
-        <v>1.741590909090909</v>
+        <v>1.784922174701128</v>
       </c>
       <c r="O32">
-        <v>1.89075</v>
+        <v>1.942625691911729</v>
       </c>
       <c r="P32">
         <v>156.6732110432015</v>
@@ -2342,7 +2342,7 @@
         <v>83</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J33">
         <v>8000</v>
@@ -2357,10 +2357,10 @@
         <v>345779.7776501709</v>
       </c>
       <c r="N33">
-        <v>1.741590909090909</v>
+        <v>1.909121107266436</v>
       </c>
       <c r="O33">
-        <v>1.89075</v>
+        <v>2.092759415833974</v>
       </c>
       <c r="P33">
         <v>43.22247220627136</v>
@@ -2395,7 +2395,7 @@
         <v>83</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J34">
         <v>8000</v>
@@ -2410,10 +2410,10 @@
         <v>963519.942765158</v>
       </c>
       <c r="N34">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="O34">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="P34">
         <v>120.4399928456448</v>
@@ -2448,7 +2448,7 @@
         <v>85</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J35">
         <v>8000</v>
@@ -2495,7 +2495,7 @@
         <v>83</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2510,10 +2510,10 @@
         <v>681992.29965452</v>
       </c>
       <c r="N36">
-        <v>1.741590909090909</v>
+        <v>1.790685487585954</v>
       </c>
       <c r="O36">
-        <v>1.89075</v>
+        <v>1.94954496878686</v>
       </c>
       <c r="P36">
         <v>85.249037456815</v>
@@ -2548,7 +2548,7 @@
         <v>83</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J37">
         <v>8000</v>
@@ -2563,10 +2563,10 @@
         <v>1168309.054993405</v>
       </c>
       <c r="N37">
-        <v>1.741590909090909</v>
+        <v>1.908284719500103</v>
       </c>
       <c r="O37">
-        <v>1.89075</v>
+        <v>2.091741145739967</v>
       </c>
       <c r="P37">
         <v>146.0386318741756</v>
@@ -2654,7 +2654,7 @@
         <v>83</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J39">
         <v>8000</v>
@@ -2669,10 +2669,10 @@
         <v>1062080.940457618</v>
       </c>
       <c r="N39">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="O39">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="P39">
         <v>132.7601175572023</v>
@@ -2707,7 +2707,7 @@
         <v>83</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J40">
         <v>8000</v>
@@ -2722,10 +2722,10 @@
         <v>912490.5628406557</v>
       </c>
       <c r="N40">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="O40">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="P40">
         <v>114.061320355082</v>
@@ -2760,7 +2760,7 @@
         <v>83</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J41">
         <v>8000</v>
@@ -2775,10 +2775,10 @@
         <v>816241.1394252041</v>
       </c>
       <c r="N41">
-        <v>1.741590909090909</v>
+        <v>1.8239809580482</v>
       </c>
       <c r="O41">
-        <v>1.89075</v>
+        <v>1.989608681354817</v>
       </c>
       <c r="P41">
         <v>102.0301424281505</v>
@@ -2813,7 +2813,7 @@
         <v>85</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J42">
         <v>8000</v>
@@ -2860,7 +2860,7 @@
         <v>83</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J43">
         <v>8000</v>
@@ -2875,10 +2875,10 @@
         <v>725609.7675775918</v>
       </c>
       <c r="N43">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="O43">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="P43">
         <v>90.70122094719898</v>
@@ -2966,7 +2966,7 @@
         <v>83</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J45">
         <v>8000</v>
@@ -2981,10 +2981,10 @@
         <v>1691584.783816095</v>
       </c>
       <c r="N45">
-        <v>1.741590909090909</v>
+        <v>1.815485677363773</v>
       </c>
       <c r="O45">
-        <v>1.89075</v>
+        <v>1.979371877230549</v>
       </c>
       <c r="P45">
         <v>211.4480979770119</v>
@@ -3072,7 +3072,7 @@
         <v>83</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J47">
         <v>8000</v>
@@ -3087,10 +3087,10 @@
         <v>813915.3130593229</v>
       </c>
       <c r="N47">
-        <v>1.741590909090909</v>
+        <v>1.803394296576035</v>
       </c>
       <c r="O47">
-        <v>1.89075</v>
+        <v>1.964819060413116</v>
       </c>
       <c r="P47">
         <v>101.7394141324154</v>
@@ -3284,7 +3284,7 @@
         <v>83</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="J51">
         <v>8000</v>
@@ -3299,10 +3299,10 @@
         <v>940461.8606503607</v>
       </c>
       <c r="N51">
-        <v>1.741590909090909</v>
+        <v>1.790685487585954</v>
       </c>
       <c r="O51">
-        <v>1.89075</v>
+        <v>1.94954496878686</v>
       </c>
       <c r="P51">
         <v>117.5577325812951</v>
@@ -3337,7 +3337,7 @@
         <v>83</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J52">
         <v>8000</v>
@@ -3352,10 +3352,10 @@
         <v>457457.2891348442</v>
       </c>
       <c r="N52">
-        <v>1.741590909090909</v>
+        <v>1.803394296576035</v>
       </c>
       <c r="O52">
-        <v>1.89075</v>
+        <v>1.964819060413116</v>
       </c>
       <c r="P52">
         <v>57.18216114185552</v>
@@ -3596,7 +3596,7 @@
         <v>83</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J57">
         <v>8000</v>
@@ -3611,10 +3611,10 @@
         <v>549582.5057187775</v>
       </c>
       <c r="N57">
-        <v>1.741590909090909</v>
+        <v>1.672603071948262</v>
       </c>
       <c r="O57">
-        <v>1.89075</v>
+        <v>1.808689105403011</v>
       </c>
       <c r="P57">
         <v>68.69781321484719</v>
